--- a/va_facility_data_2025-02-20/Donald J. Mitchell Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Donald%20J.%20Mitchell%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Donald J. Mitchell Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Donald%20J.%20Mitchell%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6d8c0f22d5e1437c8502a5aac3b02ede"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Raf1d549c4f434f5a8201012ade7a9f58"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0ce9f8967c9b4b96aeb513b559bb1203"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rdc47d9ffa21844c3a45c8ad6fcea787c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1864f82268934e3eaf2f5a558e3bd557"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R38148312ba8e4f6697722c594c36c385"/>
   </x:sheets>
 </x:workbook>
 </file>
